--- a/Modelos em Python/1_Erros_todo.xlsx
+++ b/Modelos em Python/1_Erros_todo.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.816508776532364</v>
+        <v>5.11198517758392</v>
       </c>
       <c r="C7" t="n">
-        <v>0.328543324559446</v>
+        <v>0.3493997257332322</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1204128969308838</v>
+        <v>0.1262286887341474</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.964022338187805</v>
+        <v>5.954916531209348</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4011745608494322</v>
+        <v>0.4006532898593535</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1497146844972182</v>
+        <v>0.1495018590142614</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/1_Erros_todo.xlsx
+++ b/Modelos em Python/1_Erros_todo.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/1_Erros_todo.xlsx
+++ b/Modelos em Python/1_Erros_todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.4355418668144</v>
+        <v>3.935239865129625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3024050699121575</v>
+        <v>0.2515897255454964</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1146083932792815</v>
+        <v>0.09338616318510001</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.97990593962932</v>
+        <v>4.211149987563628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4021685733114307</v>
+        <v>0.2688747959393964</v>
       </c>
       <c r="D3" t="n">
-        <v>0.150094902256048</v>
+        <v>0.1006759693776767</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.43441226932912</v>
+        <v>4.046177851440669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3019145185676098</v>
+        <v>0.2576316225723108</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1138790913380392</v>
+        <v>0.09433693171563359</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.629152957709747</v>
+        <v>3.927549445814761</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3158958591380221</v>
+        <v>0.2510953776399585</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1195266020965856</v>
+        <v>0.0932563176430298</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.506680507261651</v>
+        <v>3.94685107497889</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3067529652971118</v>
+        <v>0.2526975487553071</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1158450208226143</v>
+        <v>0.09343227969438654</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.11198517758392</v>
+        <v>3.9099188802899</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3493997257332322</v>
+        <v>0.250387549814988</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1262286887341474</v>
+        <v>0.0930815221041961</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.867497616796735</v>
+        <v>3.988769333170278</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3945955045574091</v>
+        <v>0.2548621780143491</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1471146811181376</v>
+        <v>0.0961559853899841</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.954916531209348</v>
+        <v>4.104400177222939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4006532898593535</v>
+        <v>0.2629136931675924</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1495018590142614</v>
+        <v>0.09835392114414553</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.359187386377879</v>
+        <v>8.45436373703372</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3884324682027064</v>
+        <v>0.3467661224382451</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1464911514804961</v>
+        <v>0.1972647785117542</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.834769260144854</v>
+        <v>9.356379757780578</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5749154227259103</v>
+        <v>0.6584348102099152</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1800100151885783</v>
+        <v>0.2090016434864631</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.886127915375739</v>
+        <v>9.584485732323911</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5793354437113719</v>
+        <v>0.678554177865932</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1810249644816674</v>
+        <v>0.2133949157226728</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.514897613775062</v>
+        <v>9.157719248026917</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6328220143579403</v>
+        <v>0.6421467354307131</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1935413214487845</v>
+        <v>0.20628438597229</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1_Erros_todo.xlsx
+++ b/Modelos em Python/1_Erros_todo.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.45436373703372</v>
+        <v>8.507733813618719</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3467661224382451</v>
+        <v>0.3625018754362438</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1972647785117542</v>
+        <v>0.1967009389291081</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.356379757780578</v>
+        <v>9.23548567265709</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6584348102099152</v>
+        <v>0.6478242116234965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2090016434864631</v>
+        <v>0.2075653702844392</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.584485732323911</v>
+        <v>9.416453178291706</v>
       </c>
       <c r="C12" t="n">
-        <v>0.678554177865932</v>
+        <v>0.663756488345418</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2133949157226728</v>
+        <v>0.2104825397287932</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.157719248026917</v>
+        <v>9.205852543245028</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6421467354307131</v>
+        <v>0.6463760151464432</v>
       </c>
       <c r="D13" t="n">
-        <v>0.20628438597229</v>
+        <v>0.2070158443921506</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1_Erros_todo.xlsx
+++ b/Modelos em Python/1_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.212157407791217</v>
+        <v>9.22830979405872</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6474443910179722</v>
+        <v>0.6488731557237463</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2066173419749579</v>
+        <v>0.2068723491523729</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_todo.xlsx
+++ b/Modelos em Python/1_Erros_todo.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.22830979405872</v>
+        <v>9.205365184406137</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6488731557237463</v>
+        <v>0.6467763934700292</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2068723491523729</v>
+        <v>0.2065409147072056</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_todo.xlsx
+++ b/Modelos em Python/1_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.205365184406137</v>
+        <v>9.207353314548801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6467763934700292</v>
+        <v>0.6470691818420927</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2065409147072056</v>
+        <v>0.2065691289409114</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_todo.xlsx
+++ b/Modelos em Python/1_Erros_todo.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.207353314548801</v>
+        <v>9.217793749198544</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6470691818420927</v>
+        <v>0.6481379496340804</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2065691289409114</v>
+        <v>0.2066443289920689</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/1_Erros_todo.xlsx
+++ b/Modelos em Python/1_Erros_todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.935239865129625</v>
+        <v>3.935442610607392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2515897255454964</v>
+        <v>0.2516097997271469</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09338616318510001</v>
+        <v>0.093375010852803</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.080617559182147</v>
+        <v>4.144068282231142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2608725411131667</v>
+        <v>0.2650918138752573</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09868397099186951</v>
+        <v>0.1000363443875287</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.046177851440669</v>
+        <v>5.14072882190515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2576316225723108</v>
+        <v>0.3299311418182949</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09433693171563359</v>
+        <v>0.1163714863699909</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.927549445814761</v>
+        <v>3.934570028610286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2510953776399585</v>
+        <v>0.251637558291213</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0932563176430298</v>
+        <v>0.09336787177432454</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.94685107497889</v>
+        <v>3.949948263722126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2526975487553071</v>
+        <v>0.2531267173322185</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09343227969438654</v>
+        <v>0.09343275817198875</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.9099188802899</v>
+        <v>3.931720096258949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.250387549814988</v>
+        <v>0.2537451610539753</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0930815221041961</v>
+        <v>0.09255808947186446</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.051496780743347</v>
+        <v>4.017419930899875</v>
       </c>
       <c r="C8" t="n">
-        <v>0.258721829041754</v>
+        <v>0.2568630898554682</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09861280075642616</v>
+        <v>0.09753901015637267</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.047247012056903</v>
+        <v>4.048493428605878</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2589093989977568</v>
+        <v>0.2584938505253987</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09815417880523448</v>
+        <v>0.09814598539155872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.217793749198544</v>
+        <v>9.213029239189337</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6481379496340804</v>
+        <v>0.6474466061718706</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2066443289920689</v>
+        <v>0.2066023468467001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.428465843603878</v>
+        <v>9.529212970874452</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6673121638404712</v>
+        <v>0.6761780986501779</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2098778244954185</v>
+        <v>0.2118683702856242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/1_Erros_todo.xlsx
+++ b/Modelos em Python/1_Erros_todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.935442610607392</v>
+        <v>7.873108123028481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2516097997271469</v>
+        <v>0.2516948179628676</v>
       </c>
       <c r="D2" t="n">
-        <v>0.093375010852803</v>
+        <v>0.09335900692439789</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.144068282231142</v>
+        <v>8.286638296891342</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2650918138752573</v>
+        <v>0.2650690972377344</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1000363443875287</v>
+        <v>0.1000165883616727</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.14072882190515</v>
+        <v>8.362623881939717</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3299311418182949</v>
+        <v>0.2678412065805983</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1163714863699909</v>
+        <v>0.0950022793521605</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.934570028610286</v>
+        <v>7.877316485940197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.251637558291213</v>
+        <v>0.2518991444006358</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09336787177432454</v>
+        <v>0.09335973506938729</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.949948263722126</v>
+        <v>7.897290639788456</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2531267173322185</v>
+        <v>0.2526304549955278</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09343275817198875</v>
+        <v>0.09339789952899313</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.931720096258949</v>
+        <v>8.054579410219402</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2537451610539753</v>
+        <v>0.2580478158781178</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09255808947186446</v>
+        <v>0.0950759210854349</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.017419930899875</v>
+        <v>8.034231931518526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2568630898554682</v>
+        <v>0.2568591106904585</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09753901015637267</v>
+        <v>0.0975818740945236</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.048493428605878</v>
+        <v>7.988471467052507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2584938505253987</v>
+        <v>0.2553867278042932</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09814598539155872</v>
+        <v>0.09725800078386164</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.507733813618719</v>
+        <v>7.93172360200823</v>
       </c>
       <c r="C10" t="n">
         <v>0.3625018754362438</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.213029239189337</v>
+        <v>18.43999332272492</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6474466061718706</v>
+        <v>0.6481289272216924</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2066023468467001</v>
+        <v>0.2067252148892732</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.529212970874452</v>
+        <v>19.05842594174891</v>
       </c>
       <c r="C12" t="n">
         <v>0.6761780986501779</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.243634951464266</v>
+        <v>18.48726990292854</v>
       </c>
       <c r="C13" t="n">
         <v>0.6483561898252087</v>

--- a/Modelos em Python/1_Erros_todo.xlsx
+++ b/Modelos em Python/1_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_todo.xlsx
+++ b/Modelos em Python/1_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="12">
